--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651944.717823662</v>
+        <v>649423.296374473</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>385.2199810837766</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.37364561537595</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.856905468897</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>82.40334910127464</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>60.24399451265899</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>186.1518470411424</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>224.4721802980699</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>79.4165396514655</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>76.25086600925697</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>119.3517065765362</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814039</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
-        <v>63.72703424640802</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.48791714390922</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465707</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.95900124023654</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229322</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.45703212904641</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>165.1436917124523</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428391</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>124.936238874645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>1179.250440354287</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>810.2879234138754</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>452.0222248071249</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>452.0222248071249</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.679080303816</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.679080303816</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2533.679080303816</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2533.679080303816</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2533.679080303816</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>2160.213322042736</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.32755894284</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109307</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>420.778263848027</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.9856847044969</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854559</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570292</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570292</v>
+        <v>1086.424866249818</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>700.6366136515742</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>693.6911129023707</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>277.9863626266596</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056583</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786469</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525389</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549578</v>
+        <v>1831.290404920691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800308</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3094.757873766027</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2763.694986422457</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2410.926331152342</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2037.460572891262</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1647.321240915451</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5039,10 +5039,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,10 +5054,10 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5072,19 +5072,19 @@
         <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1653.719034637164</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.1710892086095</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>762.2349062807026</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>612.1182668683668</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859737</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2386.468787396118</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2386.468787396118</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2166.7900051105</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1877.713791425227</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1623.02930321934</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1333.612133182379</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.612133182379</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.819554038849</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052742</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511914</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232846</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232846</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408914</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2412.158000621628</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2412.158000621628</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.158000621628</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965826</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759939</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722979</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.991564824961</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.198985681431</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2213.105570022105</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1993.504105045046</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1704.428878389244</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121666</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270465</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.94186588374657</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7434581780644</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.449012614385</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.3788495757816</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.65606465793485</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>95.07856978341843</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>158.3406588394358</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.69283444717433</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.4620467826947</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646568</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.91821458107525</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>15.88259428919233</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392193995</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42.31058222398285</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890358</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>954342.8304223629</v>
+        <v>954342.8304223632</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503241</v>
+        <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
@@ -26335,25 +26335,25 @@
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="K2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="K2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>313680.0588189856</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832933</v>
+        <v>81924.27863832924</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95516.77164860955</v>
+        <v>95516.77164860966</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8720.723770518933</v>
@@ -26430,7 +26430,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
@@ -26439,22 +26439,22 @@
         <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-927730.7064140495</v>
+        <v>-927905.9327324588</v>
       </c>
       <c r="C6" t="n">
-        <v>182060.9755153139</v>
+        <v>182060.9755153142</v>
       </c>
       <c r="D6" t="n">
-        <v>22045.51276731462</v>
+        <v>22045.51276731469</v>
       </c>
       <c r="E6" t="n">
-        <v>-21203.02528432762</v>
+        <v>-21248.93027989308</v>
       </c>
       <c r="F6" t="n">
-        <v>282271.2505143106</v>
+        <v>282236.5125888749</v>
       </c>
       <c r="G6" t="n">
-        <v>293723.5136293516</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="H6" t="n">
-        <v>293723.5136293515</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="I6" t="n">
-        <v>293723.5136293518</v>
+        <v>293688.7757039158</v>
       </c>
       <c r="J6" t="n">
-        <v>126118.3358193688</v>
+        <v>126083.5978939335</v>
       </c>
       <c r="K6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="L6" t="n">
-        <v>245429.543621161</v>
+        <v>245394.8056957252</v>
       </c>
       <c r="M6" t="n">
-        <v>211799.2349910224</v>
+        <v>211764.4970655867</v>
       </c>
       <c r="N6" t="n">
-        <v>290646.496273647</v>
+        <v>290611.7583482114</v>
       </c>
       <c r="O6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039161</v>
       </c>
       <c r="P6" t="n">
-        <v>293723.5136293516</v>
+        <v>293688.7757039161</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364143</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237144</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>248.5515204964802</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.3810331871566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>143.3063062877625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>179.1210447298652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>76.54637226433547</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>144.497829987955</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>131.6434653823658</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360091</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
-        <v>161.9826211426291</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29329,10 +29329,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>394.0223077997498</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>490.507583235568</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>271.5293621272314</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>559.9405577709383</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,16 +35027,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>521.873694610508</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>251.4260633553054</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066269</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>351.9532034556938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
